--- a/DelBay20/DelBay20_sample_table.xlsx
+++ b/DelBay20/DelBay20_sample_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Documents/GitHub/HG_Code_Bay/DelBay20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E419CE46-7071-034B-8E24-C02AF121380B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9E260C-01DC-EB41-9BD4-F23591A0836F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="620" windowWidth="31820" windowHeight="17440" activeTab="2" xr2:uid="{CF15C8B2-E495-4741-92DF-4A1A6379DFE2}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="31820" windowHeight="17440" activeTab="2" xr2:uid="{CF15C8B2-E495-4741-92DF-4A1A6379DFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7958" uniqueCount="1603">
   <si>
     <t>Cv102_CKDL210000056-1a-AK16446-AK17095_HNMTKDSXY_L4</t>
   </si>
@@ -4302,6 +4302,567 @@
   </si>
   <si>
     <t>CHR</t>
+  </si>
+  <si>
+    <t>Cv102_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv104_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv105_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv112_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv115_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv121_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv125_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv128_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv129_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv133_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv135_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv136_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv139_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv142_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv147_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv150_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv15_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv161_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv162_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv164_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv165_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv169_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv171_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv174_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv178_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv179_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv180_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv181_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv183_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv188_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv193_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv194_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv199_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv19_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv203_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv209_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv20_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv213_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv214_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv216_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv218_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv220_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv226_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv230_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv240_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv241_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv242_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv243_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv247_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv249_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv257_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv259_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv261_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv263_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv268_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv270_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv275_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv277_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv278_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv279_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv27_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv283_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv28_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv290_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv294_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv295_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv299_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv300_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv301_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv304_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv305_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv311_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv315_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv316_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv318_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv321_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv326_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv328_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv330_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv331_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv332_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv33_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv348_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv35_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv39_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv41_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv42_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv44_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv47_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv50_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv54_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv56_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_01_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_02_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_03_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_04_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_05_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_06_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_07_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_08_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_09_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_10_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_11_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_12_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_13_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_14_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_15_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_16_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_17_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_18_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_19_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_20_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_21_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_22_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_23_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_24_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_25_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_26_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_27_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_28_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_29_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5785_30_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_01_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_02_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_03_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_04_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_05_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_06_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_07_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_08_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_09_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_10_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_11_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_12_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_13_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_14_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_15_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_16_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_17_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_18_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_19_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_20_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_21_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_22_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_23_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_24_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_25_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_26_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_27_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_28_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_29_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5786_30_NY_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv5_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv63_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv64_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv68_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv69_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv72_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv76_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv78_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv82_REF_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>Cv87_CHR_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_01_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_02_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_03_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_04_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_05_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_06_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_07_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_08_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_09_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_10_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_11_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_12_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_13_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_14_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_15_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_16_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_17_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_18_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_19_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_20_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_21_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_22_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_23_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_24_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
+  </si>
+  <si>
+    <t>HH13a_25_CT_1_4_pe_bt2_CV30_masked_minq20_sorted.bam</t>
   </si>
 </sst>
 </file>
@@ -15846,953 +16407,1518 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B0FB76-6A7B-4946-AC40-5CAF7F715CDD}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" s="28" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" s="28" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" s="28" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C4" s="28" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5" s="28" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C6" s="28" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C7" s="28" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C8" s="28" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C9" s="28" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C10" s="28" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C11" s="28" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C12" s="28" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C13" s="28" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C14" s="28" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C15" s="28" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" s="28" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C17" s="28" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C18" s="28" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C19" s="28" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C20" s="28" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" s="28" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C22" s="28" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" s="28" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" s="28" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="28" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C26" s="28" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C27" s="28" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C28" s="28" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="28" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30" s="28" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31" s="26" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C32" s="26" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C33" s="26" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C34" s="26" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C35" s="26" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C36" s="26" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C37" s="26" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="26" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C39" s="26" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C40" s="26" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="26" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C42" s="26" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C43" s="26" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C44" s="26" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C45" s="26" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C46" s="26" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C47" s="26" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C48" s="26" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C49" s="26" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C50" s="26" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C51" s="26" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C52" s="26" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C53" s="26" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C54" s="26" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C55" s="26" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C56" s="26" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C57" s="26" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C58" s="26" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C59" s="26" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C60" s="26" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C61" s="27" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C62" s="27" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C63" s="27" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C64" s="27" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C65" s="27" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C66" s="27" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C67" s="27" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C68" s="27" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C69" s="27" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C70" s="27" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C71" s="27" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C72" s="27" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C73" s="27" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C74" s="27" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C75" s="27" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C76" s="27" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C77" s="27" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C78" s="27" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C79" s="27" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C80" s="27" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C81" s="27" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C82" s="27" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C83" s="27" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C84" s="27" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C85" s="27" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C86" s="27" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C87" s="27" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C88" s="27" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C89" s="27" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C90" s="27" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C91" s="28" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C92" s="28" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C93" s="28" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C94" s="28" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C95" s="28" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C96" s="28" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C97" s="28" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C98" s="28" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C99" s="28" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C100" s="28" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="26" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C101" s="28" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="26" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C102" s="28" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C103" s="28" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C104" s="28" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C105" s="28" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C106" s="28" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C107" s="28" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C108" s="28" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C109" s="28" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C110" s="28" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C111" s="28" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C112" s="28" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C113" s="28" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C114" s="28" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C115" s="28" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C116" s="28" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C117" s="28" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C118" s="28" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C119" s="28" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C120" s="28" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C121" s="26" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C122" s="26" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C123" s="26" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C124" s="26" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C125" s="26" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C126" s="26" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C127" s="26" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C128" s="26" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C129" s="26" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C130" s="26" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C131" s="26" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C132" s="26" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="28" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C133" s="26" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C134" s="26" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="28" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C135" s="26" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C136" s="26" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C137" s="26" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C138" s="26" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C139" s="26" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C140" s="26" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C141" s="26" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C142" s="26" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C143" s="26" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="27" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C144" s="26" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C145" s="26" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C146" s="26" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C147" s="26" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C148" s="26" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C149" s="26" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C150" s="26" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="26" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C151" s="27" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C152" s="27" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C153" s="27" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C154" s="27" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C155" s="27" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C156" s="27" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C157" s="27" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C158" s="27" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C159" s="27" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="26" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C160" s="27" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C161" s="27" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="28" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C162" s="27" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C163" s="27" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C164" s="27" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C165" s="27" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C166" s="27" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C167" s="27" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="28" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C168" s="27" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C169" s="27" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C170" s="27" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C171" s="27" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="26" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C172" s="27" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="26" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C173" s="27" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="26" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C174" s="27" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="26" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C175" s="27" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="26" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C176" s="27" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="26" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C177" s="27" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C178" s="27" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C179" s="27" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C180" s="27" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
+      <c r="C187" t="s">
+        <v>1602</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C188">
+    <sortCondition ref="C1:C188"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
